--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/70/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/70/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.3569356935693569</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1685.685685685686</v>
+        <v>1526.472647264726</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07957957957957958</v>
+        <v>0.06254625462546255</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2032032032032032</v>
+        <v>0.06190619061906191</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.03403403403404</v>
+        <v>373.2473247324733</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>949.94994994995</v>
+        <v>375.4275427542754</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.2812812812813</v>
+        <v>419.6228622862286</v>
       </c>
     </row>
   </sheetData>
